--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/投稿管理.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/投稿管理.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t xml:space="preserve">投稿主题</t>
   </si>
@@ -41,15 +41,63 @@
     <t xml:space="preserve">微信OpenId</t>
   </si>
   <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">经验分享</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-22 16:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 17:17:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv81jfyJqWbVxWAH-RUqsCAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13060065076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-22 17:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 17:20:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13880954084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-24 10:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 17:20:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分享内容</t>
+  </si>
+  <si>
     <t xml:space="preserve">123</t>
   </si>
   <si>
-    <t xml:space="preserve">经验分享</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已处理</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-05-31 17:55</t>
   </si>
   <si>
@@ -59,7 +107,43 @@
     <t xml:space="preserve">12312323222221231232322222123123232222212312323222221231232322222123123232222212312323222221231232322222123123232222212312323222221231232322222123123232222212312323222221231232322222123123232222212312323222221231232322222123123232222212312323222221231232322222123123232222212312323222221231232322222123123232222212312323222221231232322222123123232222212312323222221231232322222123123232222212312323222221231232322222123123232222212312323222221231232322222123123232222212312323222221231232322222123123</t>
   </si>
   <si>
-    <t xml:space="preserve">oPM5Uv81jfyJqWbVxWAH-RUqsCAs</t>
+    <t xml:space="preserve">投稿2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵春</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18022369562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-26 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/4/27 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投稿3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑楚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18700123695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-25 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投稿1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周瑜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15022369561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-27 00:00</t>
   </si>
 </sst>
 </file>
@@ -158,23 +242,191 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
